--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C11410-75B4-4F27-99B3-7C26CB564B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF42CB-6758-4F5D-B999-97C324802196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{A17EF14A-05B8-4F6D-9FE0-D4379C47F23A}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{014348FE-56F1-4892-A36D-B13F53DFCBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4921E3F7-2805-45F7-9E79-61535228D610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7B8264-78A3-4896-A147-DCB2B885D052}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>90.784641503841073</v>
+        <v>90.847154829987289</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF42CB-6758-4F5D-B999-97C324802196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09298AD2-02A3-4702-BE94-6D8F31060DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{014348FE-56F1-4892-A36D-B13F53DFCBDE}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{18D12372-CE14-4D2D-968D-1B3EDA5B3DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7B8264-78A3-4896-A147-DCB2B885D052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12AB050-C13D-4F0C-A455-03ED64D57471}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>90.847154829987289</v>
+        <v>91.822013248514153</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09298AD2-02A3-4702-BE94-6D8F31060DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394C5188-18E5-48D0-A659-9E4EAF797011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{18D12372-CE14-4D2D-968D-1B3EDA5B3DF8}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{D30CC848-314E-41BD-BAA7-F6BA8C448837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12AB050-C13D-4F0C-A455-03ED64D57471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E6A2B-DEE5-471A-9538-EDD579127641}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>91.822013248514153</v>
+        <v>91.821877353519653</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394C5188-18E5-48D0-A659-9E4EAF797011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF09611-6DC5-428C-8ACB-23373C0A5290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{D30CC848-314E-41BD-BAA7-F6BA8C448837}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{91757E75-84C1-43BB-89A6-8A5B2AB1A034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E6A2B-DEE5-471A-9538-EDD579127641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D17529-6DB9-45FA-88E1-76A32DFACE15}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
